--- a/input.xlsx
+++ b/input.xlsx
@@ -13,7 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Servers" sheetId="1" r:id="rId1"/>
-    <sheet name="Config" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Transfer" sheetId="4" r:id="rId2"/>
+    <sheet name="Config" sheetId="2" r:id="rId3"/>
+    <sheet name="Help" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>Description</t>
   </si>
@@ -126,7 +128,115 @@
     <t>31/01/2017</t>
   </si>
   <si>
-    <t>Xpto</t>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Partial Upfront</t>
+  </si>
+  <si>
+    <t>All Upfront</t>
+  </si>
+  <si>
+    <t>1yr</t>
+  </si>
+  <si>
+    <t>Dedicated</t>
+  </si>
+  <si>
+    <t>RHEL</t>
+  </si>
+  <si>
+    <t>SUSE</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>SQL Server Enterprise</t>
+  </si>
+  <si>
+    <t>SQL Std</t>
+  </si>
+  <si>
+    <t>SQL Web</t>
+  </si>
+  <si>
+    <t>Server 1</t>
+  </si>
+  <si>
+    <t>South America (Sao Paulo)</t>
+  </si>
+  <si>
+    <t>Provisioned IOPS</t>
+  </si>
+  <si>
+    <t>General Purpose</t>
+  </si>
+  <si>
+    <t>Throughput Optimized HDD</t>
+  </si>
+  <si>
+    <t>Cold HDD</t>
+  </si>
+  <si>
+    <t>OnDemand</t>
+  </si>
+  <si>
+    <t>Data Transfer Out (GB)</t>
+  </si>
+  <si>
+    <t>Only Current Generation Instances</t>
+  </si>
+  <si>
+    <t>Use SAP Certified Instances</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Initial Capacity</t>
+  </si>
+  <si>
+    <t>Every X Months</t>
+  </si>
+  <si>
+    <t>Grow X%</t>
+  </si>
+  <si>
+    <t>SAPS</t>
+  </si>
+  <si>
+    <t>Server 2</t>
+  </si>
+  <si>
+    <t>Server 3</t>
+  </si>
+  <si>
+    <t>Server 4</t>
+  </si>
+  <si>
+    <t>Server 5</t>
+  </si>
+  <si>
+    <t>Server 6</t>
+  </si>
+  <si>
+    <t>Server 7</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Prod</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -136,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -185,20 +295,108 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -209,7 +407,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -217,7 +415,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -225,7 +440,1068 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -233,6 +1509,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:W1048576" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:W1048576"/>
+  <tableColumns count="23">
+    <tableColumn id="1" name="Description" dataDxfId="58"/>
+    <tableColumn id="2" name="Environment" dataDxfId="57"/>
+    <tableColumn id="3" name="Region" dataDxfId="56"/>
+    <tableColumn id="4" name="Instances" dataDxfId="55"/>
+    <tableColumn id="5" name="SAPS" dataDxfId="54"/>
+    <tableColumn id="6" name="CPU" dataDxfId="53"/>
+    <tableColumn id="7" name="Memory" dataDxfId="52"/>
+    <tableColumn id="8" name="Monthly Utilization" dataDxfId="51"/>
+    <tableColumn id="9" name="Storage(GB)" dataDxfId="50"/>
+    <tableColumn id="10" name="Volume Type" dataDxfId="49"/>
+    <tableColumn id="11" name="IOPS" dataDxfId="48"/>
+    <tableColumn id="12" name="Snapshot(GB)" dataDxfId="47"/>
+    <tableColumn id="13" name="Term Type" dataDxfId="46"/>
+    <tableColumn id="14" name="Lease Contract Length" dataDxfId="45"/>
+    <tableColumn id="15" name="Purchase Option" dataDxfId="44"/>
+    <tableColumn id="16" name="Offering Class" dataDxfId="43"/>
+    <tableColumn id="17" name="Tenancy" dataDxfId="42"/>
+    <tableColumn id="18" name="Operating System" dataDxfId="41"/>
+    <tableColumn id="19" name="Use SAP Certified Instances" dataDxfId="40"/>
+    <tableColumn id="20" name="Only Current Generation Instances" dataDxfId="39"/>
+    <tableColumn id="21" name="Pre Installed S/W" dataDxfId="38"/>
+    <tableColumn id="22" name="Beginning" dataDxfId="37"/>
+    <tableColumn id="23" name="End" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Region" dataDxfId="31"/>
+    <tableColumn id="2" name="US East (N. Virginia)" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <tableColumns count="6">
+    <tableColumn id="1" name="CPU Tolerance" dataDxfId="24"/>
+    <tableColumn id="2" name="Memory Tolerance" dataDxfId="23"/>
+    <tableColumn id="3" name="Match" dataDxfId="22"/>
+    <tableColumn id="4" name="Initial Capacity" dataDxfId="21"/>
+    <tableColumn id="5" name="Grow X%" dataDxfId="20"/>
+    <tableColumn id="6" name="Every X Months" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:S6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="G1:S6"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Storage(GB)" dataDxfId="16"/>
+    <tableColumn id="2" name="Volume Type" dataDxfId="15"/>
+    <tableColumn id="3" name="IOPS"/>
+    <tableColumn id="4" name="Snapshot(GB)" dataDxfId="14"/>
+    <tableColumn id="5" name="Term Type" dataDxfId="13"/>
+    <tableColumn id="6" name="Lease Contract Length" dataDxfId="12"/>
+    <tableColumn id="7" name="Purchase Option"/>
+    <tableColumn id="8" name="Offering Class" dataDxfId="11"/>
+    <tableColumn id="9" name="Tenancy" dataDxfId="10"/>
+    <tableColumn id="10" name="Operating System"/>
+    <tableColumn id="11" name="Pre Installed S/W"/>
+    <tableColumn id="12" name="Beginning" dataDxfId="9"/>
+    <tableColumn id="13" name="End" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Description" dataDxfId="5"/>
+    <tableColumn id="2" name="Region" dataDxfId="4"/>
+    <tableColumn id="3" name="Instances" dataDxfId="3"/>
+    <tableColumn id="4" name="CPU" dataDxfId="2"/>
+    <tableColumn id="5" name="Monthly Utilization" dataDxfId="1"/>
+    <tableColumn id="6" name="Memory" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,32 +1867,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.1640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>200</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>300</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>400</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>500</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>600</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>60</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>700</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="14">
+        <v>700</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18">
+        <v>10</v>
+      </c>
+      <c r="B2" s="19">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S17"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -546,49 +2443,49 @@
       <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
@@ -603,10 +2500,10 @@
         <v>100</v>
       </c>
       <c r="F2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="5">
-        <v>406</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>29</v>
@@ -615,19 +2512,19 @@
         <v>5</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>26</v>
+      <c r="N2" t="s">
+        <v>32</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>13</v>
@@ -635,7 +2532,9 @@
       <c r="P2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
       <c r="R2" s="5" t="s">
         <v>31</v>
       </c>
@@ -643,50 +2542,127 @@
         <v>31</v>
       </c>
     </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G5" s="2">
+        <v>500</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G6" s="2">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P16"/>
+    </row>
+    <row r="17" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P17"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -16,6 +16,7 @@
     <sheet name="Data Transfer" sheetId="4" r:id="rId2"/>
     <sheet name="Config" sheetId="2" r:id="rId3"/>
     <sheet name="Help" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="71">
   <si>
     <t>Description</t>
   </si>
@@ -237,6 +238,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>NDB</t>
+  </si>
+  <si>
+    <t>Hana</t>
   </si>
 </sst>
 </file>
@@ -457,6 +464,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
@@ -1051,24 +1076,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1518,87 +1525,87 @@
     <tableColumn id="1" name="Description" dataDxfId="58"/>
     <tableColumn id="2" name="Environment" dataDxfId="57"/>
     <tableColumn id="3" name="Region" dataDxfId="56"/>
-    <tableColumn id="4" name="Instances" dataDxfId="55"/>
-    <tableColumn id="5" name="SAPS" dataDxfId="54"/>
-    <tableColumn id="6" name="CPU" dataDxfId="53"/>
-    <tableColumn id="7" name="Memory" dataDxfId="52"/>
-    <tableColumn id="8" name="Monthly Utilization" dataDxfId="51"/>
-    <tableColumn id="9" name="Storage(GB)" dataDxfId="50"/>
-    <tableColumn id="10" name="Volume Type" dataDxfId="49"/>
-    <tableColumn id="11" name="IOPS" dataDxfId="48"/>
-    <tableColumn id="12" name="Snapshot(GB)" dataDxfId="47"/>
-    <tableColumn id="13" name="Term Type" dataDxfId="46"/>
-    <tableColumn id="14" name="Lease Contract Length" dataDxfId="45"/>
-    <tableColumn id="15" name="Purchase Option" dataDxfId="44"/>
-    <tableColumn id="16" name="Offering Class" dataDxfId="43"/>
-    <tableColumn id="17" name="Tenancy" dataDxfId="42"/>
-    <tableColumn id="18" name="Operating System" dataDxfId="41"/>
-    <tableColumn id="19" name="Use SAP Certified Instances" dataDxfId="40"/>
-    <tableColumn id="20" name="Only Current Generation Instances" dataDxfId="39"/>
-    <tableColumn id="21" name="Pre Installed S/W" dataDxfId="38"/>
-    <tableColumn id="22" name="Beginning" dataDxfId="37"/>
-    <tableColumn id="23" name="End" dataDxfId="36"/>
+    <tableColumn id="4" name="Instances" dataDxfId="0"/>
+    <tableColumn id="5" name="SAPS" dataDxfId="55"/>
+    <tableColumn id="6" name="CPU" dataDxfId="54"/>
+    <tableColumn id="7" name="Memory" dataDxfId="53"/>
+    <tableColumn id="8" name="Monthly Utilization" dataDxfId="52"/>
+    <tableColumn id="9" name="Storage(GB)" dataDxfId="51"/>
+    <tableColumn id="10" name="Volume Type" dataDxfId="50"/>
+    <tableColumn id="11" name="IOPS" dataDxfId="49"/>
+    <tableColumn id="12" name="Snapshot(GB)" dataDxfId="48"/>
+    <tableColumn id="13" name="Term Type" dataDxfId="47"/>
+    <tableColumn id="14" name="Lease Contract Length" dataDxfId="46"/>
+    <tableColumn id="15" name="Purchase Option" dataDxfId="45"/>
+    <tableColumn id="16" name="Offering Class" dataDxfId="44"/>
+    <tableColumn id="17" name="Tenancy" dataDxfId="43"/>
+    <tableColumn id="18" name="Operating System" dataDxfId="42"/>
+    <tableColumn id="19" name="Use SAP Certified Instances" dataDxfId="41"/>
+    <tableColumn id="20" name="Only Current Generation Instances" dataDxfId="40"/>
+    <tableColumn id="21" name="Pre Installed S/W" dataDxfId="39"/>
+    <tableColumn id="22" name="Beginning" dataDxfId="38"/>
+    <tableColumn id="23" name="End" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <tableColumns count="2">
-    <tableColumn id="1" name="Region" dataDxfId="31"/>
-    <tableColumn id="2" name="US East (N. Virginia)" dataDxfId="30"/>
+    <tableColumn id="1" name="Region" dataDxfId="32"/>
+    <tableColumn id="2" name="US East (N. Virginia)" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:F2" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="6">
-    <tableColumn id="1" name="CPU Tolerance" dataDxfId="24"/>
-    <tableColumn id="2" name="Memory Tolerance" dataDxfId="23"/>
-    <tableColumn id="3" name="Match" dataDxfId="22"/>
-    <tableColumn id="4" name="Initial Capacity" dataDxfId="21"/>
-    <tableColumn id="5" name="Grow X%" dataDxfId="20"/>
-    <tableColumn id="6" name="Every X Months" dataDxfId="19"/>
+    <tableColumn id="1" name="CPU Tolerance" dataDxfId="25"/>
+    <tableColumn id="2" name="Memory Tolerance" dataDxfId="24"/>
+    <tableColumn id="3" name="Match" dataDxfId="23"/>
+    <tableColumn id="4" name="Initial Capacity" dataDxfId="22"/>
+    <tableColumn id="5" name="Grow X%" dataDxfId="21"/>
+    <tableColumn id="6" name="Every X Months" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:S6" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="G1:S6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="G1:S6"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Storage(GB)" dataDxfId="16"/>
-    <tableColumn id="2" name="Volume Type" dataDxfId="15"/>
+    <tableColumn id="1" name="Storage(GB)" dataDxfId="17"/>
+    <tableColumn id="2" name="Volume Type" dataDxfId="16"/>
     <tableColumn id="3" name="IOPS"/>
-    <tableColumn id="4" name="Snapshot(GB)" dataDxfId="14"/>
-    <tableColumn id="5" name="Term Type" dataDxfId="13"/>
-    <tableColumn id="6" name="Lease Contract Length" dataDxfId="12"/>
+    <tableColumn id="4" name="Snapshot(GB)" dataDxfId="15"/>
+    <tableColumn id="5" name="Term Type" dataDxfId="14"/>
+    <tableColumn id="6" name="Lease Contract Length" dataDxfId="13"/>
     <tableColumn id="7" name="Purchase Option"/>
-    <tableColumn id="8" name="Offering Class" dataDxfId="11"/>
-    <tableColumn id="9" name="Tenancy" dataDxfId="10"/>
+    <tableColumn id="8" name="Offering Class" dataDxfId="12"/>
+    <tableColumn id="9" name="Tenancy" dataDxfId="11"/>
     <tableColumn id="10" name="Operating System"/>
     <tableColumn id="11" name="Pre Installed S/W"/>
-    <tableColumn id="12" name="Beginning" dataDxfId="9"/>
-    <tableColumn id="13" name="End" dataDxfId="8"/>
+    <tableColumn id="12" name="Beginning" dataDxfId="10"/>
+    <tableColumn id="13" name="End" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Description" dataDxfId="5"/>
-    <tableColumn id="2" name="Region" dataDxfId="4"/>
-    <tableColumn id="3" name="Instances" dataDxfId="3"/>
-    <tableColumn id="4" name="CPU" dataDxfId="2"/>
-    <tableColumn id="5" name="Monthly Utilization" dataDxfId="1"/>
-    <tableColumn id="6" name="Memory" dataDxfId="0"/>
+    <tableColumn id="1" name="Description" dataDxfId="6"/>
+    <tableColumn id="2" name="Region" dataDxfId="5"/>
+    <tableColumn id="3" name="Instances" dataDxfId="4"/>
+    <tableColumn id="4" name="CPU" dataDxfId="3"/>
+    <tableColumn id="5" name="Monthly Utilization" dataDxfId="2"/>
+    <tableColumn id="6" name="Memory" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1869,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2337,7 +2344,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F3"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2665,4 +2672,27 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>